--- a/Version 3/Cards/Python_files/search.xlsx
+++ b/Version 3/Cards/Python_files/search.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{175BDD5A-6B29-4771-B1CA-AB31F4070952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{175BDD5A-6B29-4771-B1CA-AB31F4070952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C52F99F4-A2CC-4978-A3B6-6626695F56E6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>Mellanox InfiniBand and Ethernet Driver</t>
   </si>
@@ -239,12 +231,15 @@
   </si>
   <si>
     <t>ESXi7.0_FW_SC</t>
+  </si>
+  <si>
+    <t>FWPKG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -312,11 +307,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,6 +333,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,6 +951,281 @@
         <v>64</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
